--- a/Login.xlsx
+++ b/Login.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\manual testing\sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OpenCart_E-Commerce\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B9A733-BE14-479E-A71E-31FF6692F438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04F17D2-D809-441D-848F-545C78CB14AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00D57828-09EC-40BD-918E-E48404931699}"/>
   </bookViews>
@@ -467,7 +467,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,21 +476,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="14"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -504,13 +498,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,28 +549,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -924,681 +914,681 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49" style="2" customWidth="1"/>
-    <col min="4" max="4" width="52.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="73.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49" style="1" customWidth="1"/>
+    <col min="4" max="4" width="52.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="73.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="144" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="6"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="126" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="126" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="6"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="126" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="6"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="108" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="6"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="6"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" ht="198" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="6"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="54" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="6"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="162" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="6"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="198" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="8"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11" ht="126" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="8"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11" ht="162" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="8"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="D14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="8"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="126" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="8"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" ht="108" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="D16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="8"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" ht="288" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="D17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="8"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" ht="198" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="8"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="D19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="8"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" ht="144" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="D20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="8"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" ht="144" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="D21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="8"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" ht="54" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="D22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="8"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" ht="54" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="D23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="8"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" ht="54" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="B24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="D24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="8"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:J24">
